--- a/PopfreSurvey/ImageryStatistics150m.xlsx
+++ b/PopfreSurvey/ImageryStatistics150m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB489E-422D-4D3E-8814-91A7B02BDB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095EBFAE-C72B-496E-88B8-5933B21A5E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheep" sheetId="2" r:id="rId1"/>
@@ -622,7 +622,1320 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheep!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheep!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheep!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>916767.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143002.07999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143002.07999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>437912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06DB-487A-9EC4-AB7BA8717A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheep!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>upland forests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheep!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheep!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2286460.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>824283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>824283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2333244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>727831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>705500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>596605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06DB-487A-9EC4-AB7BA8717A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheep!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheep!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheep!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3407203.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>399762.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399762.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1602368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>397806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>570108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06DB-487A-9EC4-AB7BA8717A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheep!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheep!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheep!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1768408.5599999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>566071.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>566071.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1343580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>487356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>498590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-06DB-487A-9EC4-AB7BA8717A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62979215"/>
+        <c:axId val="62972015"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheep!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Year</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheep!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheep!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-06DB-487A-9EC4-AB7BA8717A0C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="62979215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62972015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="62972015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62979215"/>
+        <c:crossesAt val="2010"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E062AB0-7ED0-BB15-E2E7-F10427BA87FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1020,12 +2333,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -1059,7 +2372,7 @@
         <v>1768408.5599999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1076,7 +2389,7 @@
         <v>566071.19999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1093,7 +2406,7 @@
         <v>566071.19999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1110,7 +2423,7 @@
         <v>1343580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1127,7 +2440,7 @@
         <v>487356</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -1144,7 +2457,7 @@
         <v>498590</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -1163,6 +2476,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1174,9 +2488,9 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -1210,7 +2524,7 @@
         <v>1543874.04</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1227,7 +2541,7 @@
         <v>2577006</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1244,7 +2558,7 @@
         <v>414806.39999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1261,7 +2575,7 @@
         <v>1343292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1278,7 +2592,7 @@
         <v>276364</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -1295,7 +2609,7 @@
         <v>308978</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -1321,13 +2635,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC82031-0435-4F55-AE90-19C5766AF4DC}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -1361,7 +2675,7 @@
         <v>2370307.6799999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1378,7 +2692,7 @@
         <v>408843</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1395,7 +2709,7 @@
         <v>465890.04</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1412,7 +2726,7 @@
         <v>1238736</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1429,7 +2743,7 @@
         <v>493055</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -1446,7 +2760,7 @@
         <v>539092</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -1472,19 +2786,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C91333-541E-40B9-8965-F20DDBC03510}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17:Z22"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +2872,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +2946,7 @@
         <v>158540</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +3020,7 @@
         <v>251756</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1780,7 +3094,7 @@
         <v>574397</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1854,7 +3168,7 @@
         <v>622245</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +3242,7 @@
         <v>587612</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2002,7 +3316,7 @@
         <v>1779484</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +3411,7 @@
         <v>3974034</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +3506,7 @@
         <v>3.9893971717403525</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +3601,7 @@
         <v>6.3350238070434219</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2382,7 +3696,7 @@
         <v>14.4537515280443</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +3791,7 @@
         <v>15.657767397058004</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2572,7 +3886,7 @@
         <v>14.786285170182238</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2667,12 +3981,12 @@
         <v>44.777774925931688</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2749,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +4158,7 @@
         <v>158540</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +4253,7 @@
         <v>251756</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3034,7 +4348,7 @@
         <v>574397</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3129,7 +4443,7 @@
         <v>622245</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3224,7 +4538,7 @@
         <v>587612</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3319,7 +4633,7 @@
         <v>1779484</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
   </sheetData>

--- a/PopfreSurvey/ImageryStatistics150m.xlsx
+++ b/PopfreSurvey/ImageryStatistics150m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\PopfreSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095EBFAE-C72B-496E-88B8-5933B21A5E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2946B94-D342-468F-9125-3D598FF5937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheep" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="15">
   <si>
     <t>Shadow</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Upland forests</t>
+  </si>
+  <si>
+    <t>Riparian forests</t>
   </si>
 </sst>
 </file>
@@ -611,6 +617,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1349,7 +1360,2910 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200" baseline="0"/>
+              <a:t>Sheep Bridge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shadow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2478850773075973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1166374223690307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1166374223690307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1966093552228063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2734612986884786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87594925153940839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3944496723848854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-182A-4A53-B079-D7E320432075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.1567081952225324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8404277463141212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8404277463141212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2347231399568104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5923907503559658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.813962135988799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2859655081222501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-182A-4A53-B079-D7E320432075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upland forests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15.355119040685597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.136736081146811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.136736081146811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.563077417301624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.523971239448436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.94140246922861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.017768136292183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-182A-4A53-B079-D7E320432075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22.881658157897771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.735926651066915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.735926651066915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.495316064246504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.671093843048766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.822591146270316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.306371479698067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-182A-4A53-B079-D7E320432075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Riparian forests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.876050510626465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.202265189914232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.202265189914232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.992768675859926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.073260863267205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.386242178784824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.806398999099242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-182A-4A53-B079-D7E320432075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFCC66"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42.482579018260033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.968006909188887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.968006909188887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.517505347412332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.865822005191148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.159852818188043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.189046204403375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-182A-4A53-B079-D7E320432075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1178270528"/>
+        <c:axId val="1178272928"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1178270528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178272928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1178272928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>Percent of image</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178270528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200" baseline="0"/>
+              <a:t>Childs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shadow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$10:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0818392854414196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5280399115519119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5369860599967333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1971232272092696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6859313244422216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.601013382905744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5702314619970403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E412-4BD4-8360-7CA6EBD2EF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9948716925055301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.949971159203431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1284837052109085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2344182221398707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6926510514631312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4455759091245595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2162776609442556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E412-4BD4-8360-7CA6EBD2EF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upland forests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$12:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5731600165839583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9170238442570178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.488336688803358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.55710472129136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.273372557928511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.866072236434075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.110635879653319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E412-4BD4-8360-7CA6EBD2EF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$13:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.744591855654482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.359517619246976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0560790001426064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.498077651357637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.88987084951779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5820453554654401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.816421722106741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E412-4BD4-8360-7CA6EBD2EF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Riparian forests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.8255543913518393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.995837185102511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1477544560796789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.990620547835515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0466223616855093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.166007254900348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.591226615974335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E412-4BD4-8360-7CA6EBD2EF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFCC66"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$K$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>70.779982758462765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.249610280638151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.642360089766711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.522655630166348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.411551854962838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.339285861169834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.695206659324306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E412-4BD4-8360-7CA6EBD2EF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="868794176"/>
+        <c:axId val="868800896"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="868794176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868800896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="868800896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>Percent of image</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868794176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21287698823950027"/>
+          <c:y val="0.91797436473595106"/>
+          <c:w val="0.78712302183601091"/>
+          <c:h val="4.9643887106704254E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200" baseline="0"/>
+              <a:t>BRAP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shadow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$10:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.4935605582230616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9513229570971715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3063579301941035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6005631590569007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.485517113866742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2204278240635436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9893971717403525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D72-4B55-8506-D18B728706B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$11:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0729436827741177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1885022845888686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2392075615153892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6941990483728686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4755853494606868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1975259313235087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3350238070434219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D72-4B55-8506-D18B728706B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upland forests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$12:$Z$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.359934401147555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.406446373975058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.298951824060365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.336896526593602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.962808977815312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.412276340447631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.4537515280443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D72-4B55-8506-D18B728706B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$13:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.96883610268692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.409333481561738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.053380104826889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.941005354216967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.475365476437357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.113261458998013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.657767397058004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D72-4B55-8506-D18B728706B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$S$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Riparian forests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$14:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.923267493019765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.556393781397063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.028778596650708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.228518502269569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.319260626987914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.564301429367967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.786285170182238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4D72-4B55-8506-D18B728706B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ImageryStatistics150m!$S$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFCC66"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ImageryStatistics150m!$T$15:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>48.181457762148582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.488001121380101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.073323982752548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.19881740949009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.281462455431992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.492207015799337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.777774925931688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4D72-4B55-8506-D18B728706B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1178531712"/>
+        <c:axId val="1178553792"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1178531712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Year</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178553792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1178553792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Percent of image</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178531712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1780,6 +4694,1569 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1941,13 +6418,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2008,6 +6485,114 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1097093</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276211</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7371C2C7-2B35-C14F-20F3-37D511B79215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>322118</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8741D56E-9287-A21A-15B0-57BF4D28800F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>263722</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>282772</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>189702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F9463A-7128-9184-6C10-362B96D965E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2336,9 +6921,9 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2355,7 +6940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2372,7 +6957,7 @@
         <v>1768408.5599999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -2389,7 +6974,7 @@
         <v>566071.19999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -2406,7 +6991,7 @@
         <v>566071.19999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -2423,7 +7008,7 @@
         <v>1343580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -2440,7 +7025,7 @@
         <v>487356</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2457,7 +7042,7 @@
         <v>498590</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -2488,9 +7073,9 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2507,7 +7092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2524,7 +7109,7 @@
         <v>1543874.04</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -2541,7 +7126,7 @@
         <v>2577006</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -2558,7 +7143,7 @@
         <v>414806.39999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -2575,7 +7160,7 @@
         <v>1343292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -2592,7 +7177,7 @@
         <v>276364</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2609,7 +7194,7 @@
         <v>308978</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -2639,9 +7224,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2675,7 +7260,7 @@
         <v>2370307.6799999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -2692,7 +7277,7 @@
         <v>408843</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -2709,7 +7294,7 @@
         <v>465890.04</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -2726,7 +7311,7 @@
         <v>1238736</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -2743,7 +7328,7 @@
         <v>493055</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2760,7 +7345,7 @@
         <v>539092</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -2784,21 +7369,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C91333-541E-40B9-8965-F20DDBC03510}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2872,7 +7457,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +7531,7 @@
         <v>158540</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3020,7 +7605,7 @@
         <v>251756</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3094,7 +7679,7 @@
         <v>574397</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3168,7 +7753,7 @@
         <v>622245</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +7827,7 @@
         <v>587612</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3316,7 +7901,7 @@
         <v>1779484</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3411,1230 +7996,1496 @@
         <v>3974034</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>2017</v>
+      </c>
+      <c r="F9">
+        <v>2015</v>
+      </c>
+      <c r="G9">
+        <v>2013</v>
+      </c>
+      <c r="H9">
+        <v>2010</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>2023</v>
+      </c>
+      <c r="L9">
+        <v>2021</v>
+      </c>
+      <c r="M9">
+        <v>2019</v>
+      </c>
+      <c r="N9">
+        <v>2017</v>
+      </c>
+      <c r="O9">
+        <v>2015</v>
+      </c>
+      <c r="P9">
+        <v>2013</v>
+      </c>
+      <c r="Q9">
+        <v>2010</v>
+      </c>
+      <c r="S9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>2023</v>
+      </c>
+      <c r="U9">
+        <v>2021</v>
+      </c>
+      <c r="V9">
+        <v>2019</v>
+      </c>
+      <c r="W9">
+        <v>2017</v>
+      </c>
+      <c r="X9">
+        <v>2015</v>
+      </c>
+      <c r="Y9">
+        <v>2013</v>
+      </c>
+      <c r="Z9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>B2/B$8*100</f>
         <v>1.2478850773075973</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f>C2/C$8*100</f>
         <v>3.1166374223690307</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:H9" si="3">D2/D$8*100</f>
+      <c r="D10">
+        <f t="shared" ref="D10:H10" si="3">D2/D$8*100</f>
         <v>3.1166374223690307</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="3"/>
         <v>2.1966093552228063</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="3"/>
         <v>2.2734612986884786</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="3"/>
         <v>0.87594925153940839</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f t="shared" si="3"/>
         <v>7.3944496723848854</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <f>K2/K$8*100</f>
         <v>1.0818392854414196</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:Q9" si="4">L2/L$8*100</f>
+      <c r="L10">
+        <f t="shared" ref="L10:Q10" si="4">L2/L$8*100</f>
         <v>7.5280399115519119</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <f t="shared" si="4"/>
         <v>1.5369860599967333</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <f t="shared" si="4"/>
         <v>2.1971232272092696</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <f t="shared" si="4"/>
         <v>3.6859313244422216</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <f>P2/P$8*100</f>
         <v>1.601013382905744</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <f t="shared" si="4"/>
         <v>2.5702314619970403</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S10" t="s">
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>T2/T$8*100</f>
         <v>2.4935605582230616</v>
       </c>
-      <c r="U9">
-        <f t="shared" ref="U9:Z9" si="5">U2/U$8*100</f>
+      <c r="U10">
+        <f t="shared" ref="U10:Z10" si="5">U2/U$8*100</f>
         <v>7.9513229570971715</v>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f t="shared" si="5"/>
         <v>1.3063579301941035</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f t="shared" si="5"/>
         <v>3.6005631590569007</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f t="shared" si="5"/>
         <v>1.485517113866742</v>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>Y2/Y$8*100</f>
         <v>1.2204278240635436</v>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f t="shared" si="5"/>
         <v>3.9893971717403525</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <f t="shared" ref="B10:H14" si="6">B3/B$8*100</f>
+      <c r="B11">
+        <f>B3/B$8*100</f>
         <v>6.1567081952225324</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="6"/>
+      <c r="C11">
+        <f>C3/C$8*100</f>
         <v>3.8404277463141212</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="6"/>
+      <c r="D11">
+        <f>D3/D$8*100</f>
         <v>3.8404277463141212</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="6"/>
+      <c r="E11">
+        <f>E3/E$8*100</f>
         <v>4.2347231399568104</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="6"/>
+      <c r="F11">
+        <f>F3/F$8*100</f>
         <v>4.5923907503559658</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
+      <c r="G11">
+        <f>G3/G$8*100</f>
         <v>4.813962135988799</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
+      <c r="H11">
+        <f>H3/H$8*100</f>
         <v>4.2859655081222501</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>1</v>
       </c>
-      <c r="K10">
-        <f t="shared" ref="K10:Q13" si="7">K3/K$8*100</f>
+      <c r="K11">
+        <f>K3/K$8*100</f>
         <v>9.9948716925055301</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="7"/>
+      <c r="L11">
+        <f>L3/L$8*100</f>
         <v>12.949971159203431</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="7"/>
+      <c r="M11">
+        <f>M3/M$8*100</f>
         <v>2.1284837052109085</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="7"/>
+      <c r="N11">
+        <f>N3/N$8*100</f>
         <v>4.2344182221398707</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="7"/>
+      <c r="O11">
+        <f>O3/O$8*100</f>
         <v>5.6926510514631312</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="7"/>
+      <c r="P11">
+        <f>P3/P$8*100</f>
         <v>6.4455759091245595</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="7"/>
+      <c r="Q11">
+        <f>Q3/Q$8*100</f>
         <v>5.2162776609442556</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S11" t="s">
         <v>1</v>
       </c>
-      <c r="T10">
-        <f t="shared" ref="T10:Z13" si="8">T3/T$8*100</f>
+      <c r="T11">
+        <f>T3/T$8*100</f>
         <v>6.0729436827741177</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="8"/>
+      <c r="U11">
+        <f>U3/U$8*100</f>
         <v>5.1885022845888686</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="8"/>
+      <c r="V11">
+        <f>V3/V$8*100</f>
         <v>6.2392075615153892</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="8"/>
+      <c r="W11">
+        <f>W3/W$8*100</f>
         <v>5.6941990483728686</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="8"/>
+      <c r="X11">
+        <f>X3/X$8*100</f>
         <v>6.4755853494606868</v>
       </c>
-      <c r="Y10">
-        <f t="shared" si="8"/>
+      <c r="Y11">
+        <f>Y3/Y$8*100</f>
         <v>6.1975259313235087</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="8"/>
+      <c r="Z11">
+        <f>Z3/Z$8*100</f>
         <v>6.3350238070434219</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="6"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>B4/B$8*100</f>
         <v>15.355119040685597</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="6"/>
+      <c r="C12">
+        <f>C4/C$8*100</f>
         <v>22.136736081146811</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="6"/>
+      <c r="D12">
+        <f>D4/D$8*100</f>
         <v>22.136736081146811</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="6"/>
+      <c r="E12">
+        <f>E4/E$8*100</f>
         <v>22.563077417301624</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="6"/>
+      <c r="F12">
+        <f>F4/F$8*100</f>
         <v>19.523971239448436</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="6"/>
+      <c r="G12">
+        <f>G4/G$8*100</f>
         <v>18.94140246922861</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
+      <c r="H12">
+        <f>H4/H$8*100</f>
         <v>16.017768136292183</v>
       </c>
-      <c r="J11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="7"/>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <f>K4/K$8*100</f>
         <v>2.5731600165839583</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="7"/>
+      <c r="L12">
+        <f>L4/L$8*100</f>
         <v>1.9170238442570178</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="7"/>
+      <c r="M12">
+        <f>M4/M$8*100</f>
         <v>19.488336688803358</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="7"/>
+      <c r="N12">
+        <f>N4/N$8*100</f>
         <v>22.55710472129136</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="7"/>
+      <c r="O12">
+        <f>O4/O$8*100</f>
         <v>23.273372557928511</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="7"/>
+      <c r="P12">
+        <f>P4/P$8*100</f>
         <v>21.866072236434075</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="7"/>
+      <c r="Q12">
+        <f>Q4/Q$8*100</f>
         <v>17.110635879653319</v>
       </c>
-      <c r="S11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="8"/>
+      <c r="S12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <f>T4/T$8*100</f>
         <v>13.359934401147555</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="8"/>
+      <c r="U12">
+        <f>U4/U$8*100</f>
         <v>15.406446373975058</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="8"/>
+      <c r="V12">
+        <f>V4/V$8*100</f>
         <v>13.298951824060365</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="8"/>
+      <c r="W12">
+        <f>W4/W$8*100</f>
         <v>20.336896526593602</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="8"/>
+      <c r="X12">
+        <f>X4/X$8*100</f>
         <v>14.962808977815312</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="8"/>
+      <c r="Y12">
+        <f>Y4/Y$8*100</f>
         <v>13.412276340447631</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="8"/>
+      <c r="Z12">
+        <f>Z4/Z$8*100</f>
         <v>14.4537515280443</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="6"/>
+      <c r="B13">
+        <f>B5/B$8*100</f>
         <v>22.881658157897771</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="6"/>
+      <c r="C13">
+        <f>C5/C$8*100</f>
         <v>10.735926651066915</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="6"/>
+      <c r="D13">
+        <f>D5/D$8*100</f>
         <v>10.735926651066915</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
+      <c r="E13">
+        <f>E5/E$8*100</f>
         <v>15.495316064246504</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="6"/>
+      <c r="F13">
+        <f>F5/F$8*100</f>
         <v>10.671093843048766</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
+      <c r="G13">
+        <f>G5/G$8*100</f>
         <v>12.822591146270316</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
+      <c r="H13">
+        <f>H5/H$8*100</f>
         <v>15.306371479698067</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>2</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="7"/>
+      <c r="K13">
+        <f>K5/K$8*100</f>
         <v>10.744591855654482</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="7"/>
+      <c r="L13">
+        <f>L5/L$8*100</f>
         <v>14.359517619246976</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="7"/>
+      <c r="M13">
+        <f>M5/M$8*100</f>
         <v>7.0560790001426064</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="7"/>
+      <c r="N13">
+        <f>N5/N$8*100</f>
         <v>15.498077651357637</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="7"/>
+      <c r="O13">
+        <f>O5/O$8*100</f>
         <v>11.88987084951779</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="7"/>
+      <c r="P13">
+        <f>P5/P$8*100</f>
         <v>7.5820453554654401</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="7"/>
+      <c r="Q13">
+        <f>Q5/Q$8*100</f>
         <v>15.816421722106741</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S13" t="s">
         <v>2</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="8"/>
+      <c r="T13">
+        <f>T5/T$8*100</f>
         <v>14.96883610268692</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="8"/>
+      <c r="U13">
+        <f>U5/U$8*100</f>
         <v>10.409333481561738</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="8"/>
+      <c r="V13">
+        <f>V5/V$8*100</f>
         <v>20.053380104826889</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="8"/>
+      <c r="W13">
+        <f>W5/W$8*100</f>
         <v>15.941005354216967</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="8"/>
+      <c r="X13">
+        <f>X5/X$8*100</f>
         <v>14.475365476437357</v>
       </c>
-      <c r="Y12">
-        <f t="shared" si="8"/>
+      <c r="Y13">
+        <f>Y5/Y$8*100</f>
         <v>15.113261458998013</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="8"/>
+      <c r="Z13">
+        <f>Z5/Z$8*100</f>
         <v>15.657767397058004</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="6"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f>B6/B$8*100</f>
         <v>11.876050510626465</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="6"/>
+      <c r="C14">
+        <f>C6/C$8*100</f>
         <v>15.202265189914232</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="6"/>
+      <c r="D14">
+        <f>D6/D$8*100</f>
         <v>15.202265189914232</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
+      <c r="E14">
+        <f>E6/E$8*100</f>
         <v>12.992768675859926</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="6"/>
+      <c r="F14">
+        <f>F6/F$8*100</f>
         <v>13.073260863267205</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
+      <c r="G14">
+        <f>G6/G$8*100</f>
         <v>13.386242178784824</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
+      <c r="H14">
+        <f>H6/H$8*100</f>
         <v>10.806398999099242</v>
       </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="7"/>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <f>K6/K$8*100</f>
         <v>4.8255543913518393</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="7"/>
+      <c r="L14">
+        <f>L6/L$8*100</f>
         <v>7.995837185102511</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="7"/>
+      <c r="M14">
+        <f>M6/M$8*100</f>
         <v>5.1477544560796789</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="7"/>
+      <c r="N14">
+        <f>N6/N$8*100</f>
         <v>12.990620547835515</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="7"/>
+      <c r="O14">
+        <f>O6/O$8*100</f>
         <v>9.0466223616855093</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="7"/>
+      <c r="P14">
+        <f>P6/P$8*100</f>
         <v>10.166007254900348</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="7"/>
+      <c r="Q14">
+        <f>Q6/Q$8*100</f>
         <v>10.591226615974335</v>
       </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="8"/>
+      <c r="S14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14">
+        <f>T6/T$8*100</f>
         <v>14.923267493019765</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="8"/>
+      <c r="U14">
+        <f>U6/U$8*100</f>
         <v>10.556393781397063</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="8"/>
+      <c r="V14">
+        <f>V6/V$8*100</f>
         <v>12.028778596650708</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="8"/>
+      <c r="W14">
+        <f>W6/W$8*100</f>
         <v>11.228518502269569</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="8"/>
+      <c r="X14">
+        <f>X6/X$8*100</f>
         <v>12.319260626987914</v>
       </c>
-      <c r="Y13">
-        <f t="shared" si="8"/>
+      <c r="Y14">
+        <f>Y6/Y$8*100</f>
         <v>13.564301429367967</v>
       </c>
-      <c r="Z13">
-        <f t="shared" si="8"/>
+      <c r="Z14">
+        <f>Z6/Z$8*100</f>
         <v>14.786285170182238</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="6"/>
+      <c r="B15">
+        <f>B7/B$8*100</f>
         <v>42.482579018260033</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="6"/>
+      <c r="C15">
+        <f>C7/C$8*100</f>
         <v>44.968006909188887</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="6"/>
+      <c r="D15">
+        <f>D7/D$8*100</f>
         <v>44.968006909188887</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="6"/>
+      <c r="E15">
+        <f>E7/E$8*100</f>
         <v>42.517505347412332</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="6"/>
+      <c r="F15">
+        <f>F7/F$8*100</f>
         <v>49.865822005191148</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
+      <c r="G15">
+        <f>G7/G$8*100</f>
         <v>49.159852818188043</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
+      <c r="H15">
+        <f>H7/H$8*100</f>
         <v>46.189046204403375</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f>K7/K$8*100</f>
         <v>70.779982758462765</v>
       </c>
-      <c r="L14">
-        <f t="shared" ref="L14:Q14" si="9">L7/L$8*100</f>
+      <c r="L15">
+        <f t="shared" ref="L15:Q15" si="6">L7/L$8*100</f>
         <v>55.249610280638151</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="9"/>
+      <c r="M15">
+        <f t="shared" si="6"/>
         <v>64.642360089766711</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="9"/>
+      <c r="N15">
+        <f t="shared" si="6"/>
         <v>42.522655630166348</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="9"/>
+      <c r="O15">
+        <f t="shared" si="6"/>
         <v>46.411551854962838</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="9"/>
+      <c r="P15">
+        <f t="shared" si="6"/>
         <v>52.339285861169834</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="9"/>
+      <c r="Q15">
+        <f t="shared" si="6"/>
         <v>48.695206659324306</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S15" t="s">
         <v>4</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>T7/T$8*100</f>
         <v>48.181457762148582</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <f>U7/U$8*100</f>
         <v>50.488001121380101</v>
       </c>
-      <c r="V14">
-        <f t="shared" ref="V14:Z14" si="10">V7/V$8*100</f>
+      <c r="V15">
+        <f t="shared" ref="V15:Z15" si="7">V7/V$8*100</f>
         <v>47.073323982752548</v>
       </c>
-      <c r="W14">
-        <f t="shared" si="10"/>
+      <c r="W15">
+        <f t="shared" si="7"/>
         <v>43.19881740949009</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="10"/>
+      <c r="X15">
+        <f t="shared" si="7"/>
         <v>50.281462455431992</v>
       </c>
-      <c r="Y14">
-        <f t="shared" si="10"/>
+      <c r="Y15">
+        <f t="shared" si="7"/>
         <v>50.492207015799337</v>
       </c>
-      <c r="Z14">
-        <f t="shared" si="10"/>
+      <c r="Z15">
+        <f t="shared" si="7"/>
         <v>44.777774925931688</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <f>0.6*0.6</f>
         <v>0.36</v>
       </c>
-      <c r="C16">
-        <f t="shared" ref="C16:D16" si="11">0.6*0.6</f>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="8">0.6*0.6</f>
         <v>0.36</v>
       </c>
-      <c r="D16">
+      <c r="D17">
+        <f t="shared" si="8"/>
+        <v>0.36</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0.36</v>
+      </c>
+      <c r="L17">
+        <v>0.36</v>
+      </c>
+      <c r="M17">
+        <v>0.36</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>0.36</v>
+      </c>
+      <c r="U17">
+        <v>0.36</v>
+      </c>
+      <c r="V17">
+        <v>0.36</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f>B2*B$17</f>
+        <v>185816.88</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:H18" si="9">C2*C$17</f>
+        <v>116051.04</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="9"/>
+        <v>116051.04</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="9"/>
+        <v>227151</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>84752</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>32626</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>275417</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>K2*K$17</f>
+        <v>346120.56</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:Q18" si="10">L2*L$17</f>
+        <v>2426238</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>123850.44</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="10"/>
+        <v>227193</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="10"/>
+        <v>112601</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>48660</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>78109</v>
+      </c>
+      <c r="S18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>T2*T$17</f>
+        <v>396059.76</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:Z18" si="11">U2*U$17</f>
+        <v>307950.12</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="11"/>
-        <v>0.36</v>
-      </c>
-      <c r="E16">
+        <v>50596.92</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="11"/>
+        <v>397216</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>59455</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="11"/>
+        <v>48504</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="11"/>
+        <v>158540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="B19">
+        <f>B3*B$17</f>
+        <v>916767.36</v>
+      </c>
+      <c r="C19">
+        <f>C3*C$17</f>
+        <v>143002.07999999999</v>
+      </c>
+      <c r="D19">
+        <f>D3*D$17</f>
+        <v>143002.07999999999</v>
+      </c>
+      <c r="E19">
+        <f>E3*E$17</f>
+        <v>437912</v>
+      </c>
+      <c r="F19">
+        <f>F3*F$17</f>
+        <v>171199</v>
+      </c>
+      <c r="G19">
+        <f>G3*G$17</f>
+        <v>179303</v>
+      </c>
+      <c r="H19">
+        <f>H3*H$17</f>
+        <v>159637</v>
+      </c>
+      <c r="J19" t="s">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="K19">
+        <f>K3*K$17</f>
+        <v>3197730.6</v>
+      </c>
+      <c r="L19">
+        <f>L3*L$17</f>
+        <v>4173690.96</v>
+      </c>
+      <c r="M19">
+        <f>M3*M$17</f>
+        <v>171513.36</v>
+      </c>
+      <c r="N19">
+        <f>N3*N$17</f>
+        <v>437859</v>
+      </c>
+      <c r="O19">
+        <f>O3*O$17</f>
+        <v>173904</v>
+      </c>
+      <c r="P19">
+        <f>P3*P$17</f>
+        <v>195902</v>
+      </c>
+      <c r="Q19">
+        <f>Q3*Q$17</f>
+        <v>158522</v>
+      </c>
+      <c r="S19" t="s">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="T19">
+        <f>T3*T$17</f>
+        <v>964584</v>
+      </c>
+      <c r="U19">
+        <f>U3*U$17</f>
+        <v>200947.68</v>
+      </c>
+      <c r="V19">
+        <f>V3*V$17</f>
+        <v>241652.52</v>
+      </c>
+      <c r="W19">
+        <f>W3*W$17</f>
+        <v>628187</v>
+      </c>
+      <c r="X19">
+        <f>X3*X$17</f>
+        <v>259173</v>
+      </c>
+      <c r="Y19">
+        <f>Y3*Y$17</f>
+        <v>246311</v>
+      </c>
+      <c r="Z19">
+        <f>Z3*Z$17</f>
+        <v>251756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f>B4*B$17</f>
+        <v>2286460.7999999998</v>
+      </c>
+      <c r="C20">
+        <f>C4*C$17</f>
+        <v>824283</v>
+      </c>
+      <c r="D20">
+        <f>D4*D$17</f>
+        <v>824283</v>
+      </c>
+      <c r="E20">
+        <f>E4*E$17</f>
+        <v>2333244</v>
+      </c>
+      <c r="F20">
+        <f>F4*F$17</f>
+        <v>727831</v>
+      </c>
+      <c r="G20">
+        <f>G4*G$17</f>
+        <v>705500</v>
+      </c>
+      <c r="H20">
+        <f>H4*H$17</f>
+        <v>596605</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <f>K4*K$17</f>
+        <v>823249.44</v>
+      </c>
+      <c r="L20">
+        <f>L4*L$17</f>
+        <v>617844.24</v>
+      </c>
+      <c r="M20">
+        <f>M4*M$17</f>
+        <v>1570371.48</v>
+      </c>
+      <c r="N20">
+        <f>N4*N$17</f>
+        <v>2332512</v>
+      </c>
+      <c r="O20">
+        <f>O4*O$17</f>
+        <v>710975</v>
+      </c>
+      <c r="P20">
+        <f>P4*P$17</f>
+        <v>664581</v>
+      </c>
+      <c r="Q20">
+        <f>Q4*Q$17</f>
+        <v>519990</v>
+      </c>
+      <c r="S20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <f>T4*T$17</f>
+        <v>2121998.7599999998</v>
+      </c>
+      <c r="U20">
+        <f>U4*U$17</f>
+        <v>596682.72</v>
+      </c>
+      <c r="V20">
+        <f>V4*V$17</f>
+        <v>515085.48</v>
+      </c>
+      <c r="W20">
+        <f>W4*W$17</f>
+        <v>2243577</v>
+      </c>
+      <c r="X20">
+        <f>X4*X$17</f>
+        <v>598858</v>
+      </c>
+      <c r="Y20">
+        <f>Y4*Y$17</f>
+        <v>533050</v>
+      </c>
+      <c r="Z20">
+        <f>Z4*Z$17</f>
+        <v>574397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>B5*B$17</f>
+        <v>3407203.44</v>
+      </c>
+      <c r="C21">
+        <f>C5*C$17</f>
+        <v>399762.72</v>
+      </c>
+      <c r="D21">
+        <f>D5*D$17</f>
+        <v>399762.72</v>
+      </c>
+      <c r="E21">
+        <f>E5*E$17</f>
+        <v>1602368</v>
+      </c>
+      <c r="F21">
+        <f>F5*F$17</f>
+        <v>397806</v>
+      </c>
+      <c r="G21">
+        <f>G5*G$17</f>
+        <v>477596</v>
+      </c>
+      <c r="H21">
+        <f>H5*H$17</f>
+        <v>570108</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f>K5*K$17</f>
+        <v>3437593.92</v>
+      </c>
+      <c r="L21">
+        <f>L5*L$17</f>
+        <v>4627978.5599999996</v>
+      </c>
+      <c r="M21">
+        <f>M5*M$17</f>
+        <v>568579.31999999995</v>
+      </c>
+      <c r="N21">
+        <f>N5*N$17</f>
+        <v>1602575</v>
+      </c>
+      <c r="O21">
+        <f>O5*O$17</f>
+        <v>363222</v>
+      </c>
+      <c r="P21">
+        <f>P5*P$17</f>
+        <v>230443</v>
+      </c>
+      <c r="Q21">
+        <f>Q5*Q$17</f>
+        <v>480659</v>
+      </c>
+      <c r="S21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f>T5*T$17</f>
+        <v>2377545.48</v>
+      </c>
+      <c r="U21">
+        <f>U5*U$17</f>
+        <v>403147.44</v>
+      </c>
+      <c r="V21">
+        <f>V5*V$17</f>
+        <v>776693.15999999992</v>
+      </c>
+      <c r="W21">
+        <f>W5*W$17</f>
+        <v>1758620</v>
+      </c>
+      <c r="X21">
+        <f>X5*X$17</f>
+        <v>579349</v>
+      </c>
+      <c r="Y21">
+        <f>Y5*Y$17</f>
+        <v>600653</v>
+      </c>
+      <c r="Z21">
+        <f>Z5*Z$17</f>
+        <v>622245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f>B6*B$17</f>
+        <v>1768408.5599999998</v>
+      </c>
+      <c r="C22">
+        <f>C6*C$17</f>
+        <v>566071.19999999995</v>
+      </c>
+      <c r="D22">
+        <f>D6*D$17</f>
+        <v>566071.19999999995</v>
+      </c>
+      <c r="E22">
+        <f>E6*E$17</f>
+        <v>1343580</v>
+      </c>
+      <c r="F22">
+        <f>F6*F$17</f>
+        <v>487356</v>
+      </c>
+      <c r="G22">
+        <f>G6*G$17</f>
+        <v>498590</v>
+      </c>
+      <c r="H22">
+        <f>H6*H$17</f>
+        <v>402500</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <f>K6*K$17</f>
+        <v>1543874.04</v>
+      </c>
+      <c r="L22">
+        <f>L6*L$17</f>
+        <v>2577006</v>
+      </c>
+      <c r="M22">
+        <f>M6*M$17</f>
+        <v>414806.39999999997</v>
+      </c>
+      <c r="N22">
+        <f>N6*N$17</f>
+        <v>1343292</v>
+      </c>
+      <c r="O22">
+        <f>O6*O$17</f>
+        <v>276364</v>
+      </c>
+      <c r="P22">
+        <f>P6*P$17</f>
+        <v>308978</v>
+      </c>
+      <c r="Q22">
+        <f>Q6*Q$17</f>
+        <v>321866</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <f>T6*T$17</f>
+        <v>2370307.6799999997</v>
+      </c>
+      <c r="U22">
+        <f>U6*U$17</f>
+        <v>408843</v>
+      </c>
+      <c r="V22">
+        <f>V6*V$17</f>
+        <v>465890.04</v>
+      </c>
+      <c r="W22">
+        <f>W6*W$17</f>
+        <v>1238736</v>
+      </c>
+      <c r="X22">
+        <f>X6*X$17</f>
+        <v>493055</v>
+      </c>
+      <c r="Y22">
+        <f>Y6*Y$17</f>
+        <v>539092</v>
+      </c>
+      <c r="Z22">
+        <f>Z6*Z$17</f>
+        <v>587612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>B7*B$17</f>
+        <v>6325887.2400000002</v>
+      </c>
+      <c r="C23">
+        <f>C7*C$17</f>
+        <v>1674427.68</v>
+      </c>
+      <c r="D23">
+        <f>D7*D$17</f>
+        <v>1674427.68</v>
+      </c>
+      <c r="E23">
+        <f>E7*E$17</f>
+        <v>4396728</v>
+      </c>
+      <c r="F23">
+        <f>F7*F$17</f>
+        <v>1858940</v>
+      </c>
+      <c r="G23">
+        <f>G7*G$17</f>
+        <v>1831030</v>
+      </c>
+      <c r="H23">
+        <f>H7*H$17</f>
+        <v>1720378</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <f>K7*K$17</f>
+        <v>22645144.800000001</v>
+      </c>
+      <c r="L23">
+        <f>L7*L$17</f>
+        <v>17806587.84</v>
+      </c>
+      <c r="M23">
+        <f>M7*M$17</f>
+        <v>5208885.72</v>
+      </c>
+      <c r="N23">
+        <f>N7*N$17</f>
+        <v>4397045</v>
+      </c>
+      <c r="O23">
+        <f>O7*O$17</f>
+        <v>1417820</v>
+      </c>
+      <c r="P23">
+        <f>P7*P$17</f>
+        <v>1590761</v>
+      </c>
+      <c r="Q23">
+        <f>Q7*Q$17</f>
+        <v>1479841</v>
+      </c>
+      <c r="S23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <f>T7*T$17</f>
+        <v>7652806.5599999996</v>
+      </c>
+      <c r="U23">
+        <f>U7*U$17</f>
+        <v>1955370.96</v>
+      </c>
+      <c r="V23">
+        <f>V7*V$17</f>
+        <v>1823210.28</v>
+      </c>
+      <c r="W23">
+        <f>W7*W$17</f>
+        <v>4765716</v>
+      </c>
+      <c r="X23">
+        <f>X7*X$17</f>
+        <v>2012420</v>
+      </c>
+      <c r="Y23">
+        <f>Y7*Y$17</f>
+        <v>2006734</v>
+      </c>
+      <c r="Z23">
+        <f>Z7*Z$17</f>
+        <v>1779484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f>GEOMEAN(B10:H10)</f>
+        <v>2.3468307197920391</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>GEOMEAN(K10:Q10)</f>
+        <v>2.3676974476881978</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="S25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f>GEOMEAN(T10:Z10)</f>
+        <v>2.535953472126927</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>0.36</v>
-      </c>
-      <c r="L16">
-        <v>0.36</v>
-      </c>
-      <c r="M16">
-        <v>0.36</v>
-      </c>
-      <c r="N16">
+      <c r="B26">
+        <f t="shared" ref="B26:B30" si="12">GEOMEAN(B11:H11)</f>
+        <v>4.483799021295793</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="K26">
+        <f t="shared" ref="K26:K30" si="13">GEOMEAN(K11:Q11)</f>
+        <v>5.8092626671383325</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s">
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="T26">
+        <f t="shared" ref="T26:T30" si="14">GEOMEAN(T11:Z11)</f>
+        <v>6.0142077464892525</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="12"/>
+        <v>19.322612997959965</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
+        <v>10.950539774151142</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="14"/>
+        <v>14.879435093946155</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="12"/>
+        <v>13.58949839557002</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="13"/>
+        <v>11.336089239103368</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="S28" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="14"/>
+        <v>14.997005322993248</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="12"/>
+        <v>13.134582695809767</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="13"/>
+        <v>8.2095676870298924</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="14"/>
+        <v>12.67553732575327</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="12"/>
+        <v>45.656802887859179</v>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="13"/>
+        <v>53.602888479046506</v>
+      </c>
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="S16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16">
-        <v>0.36</v>
-      </c>
-      <c r="U16">
-        <v>0.36</v>
-      </c>
-      <c r="V16">
-        <v>0.36</v>
-      </c>
-      <c r="W16">
+      <c r="S30" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="14"/>
+        <v>47.70597761873497</v>
+      </c>
+      <c r="U30">
         <v>1</v>
       </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <f>B2*B$16</f>
-        <v>185816.88</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:H17" si="12">C2*C$16</f>
-        <v>116051.04</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="12"/>
-        <v>116051.04</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="12"/>
-        <v>227151</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="12"/>
-        <v>84752</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="12"/>
-        <v>32626</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="12"/>
-        <v>275417</v>
-      </c>
-      <c r="J17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>K2*K$16</f>
-        <v>346120.56</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ref="L17:Q17" si="13">L2*L$16</f>
-        <v>2426238</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="13"/>
-        <v>123850.44</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="13"/>
-        <v>227193</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="13"/>
-        <v>112601</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="13"/>
-        <v>48660</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="13"/>
-        <v>78109</v>
-      </c>
-      <c r="S17" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f>T2*T$16</f>
-        <v>396059.76</v>
-      </c>
-      <c r="U17">
-        <f t="shared" ref="U17:Z17" si="14">U2*U$16</f>
-        <v>307950.12</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="14"/>
-        <v>50596.92</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="14"/>
-        <v>397216</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="14"/>
-        <v>59455</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="14"/>
-        <v>48504</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="14"/>
-        <v>158540</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:H22" si="15">B3*B$16</f>
-        <v>916767.36</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="15"/>
-        <v>143002.07999999999</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="15"/>
-        <v>143002.07999999999</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="15"/>
-        <v>437912</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="15"/>
-        <v>171199</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="15"/>
-        <v>179303</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="15"/>
-        <v>159637</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18:Q22" si="16">K3*K$16</f>
-        <v>3197730.6</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="16"/>
-        <v>4173690.96</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="16"/>
-        <v>171513.36</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="16"/>
-        <v>437859</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="16"/>
-        <v>173904</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="16"/>
-        <v>195902</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="16"/>
-        <v>158522</v>
-      </c>
-      <c r="S18" t="s">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ref="T18:Z22" si="17">T3*T$16</f>
-        <v>964584</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="17"/>
-        <v>200947.68</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="17"/>
-        <v>241652.52</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="17"/>
-        <v>628187</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="17"/>
-        <v>259173</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="17"/>
-        <v>246311</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="17"/>
-        <v>251756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="15"/>
-        <v>2286460.7999999998</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="15"/>
-        <v>824283</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="15"/>
-        <v>824283</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="15"/>
-        <v>2333244</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="15"/>
-        <v>727831</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="15"/>
-        <v>705500</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="15"/>
-        <v>596605</v>
-      </c>
-      <c r="J19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="16"/>
-        <v>823249.44</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="16"/>
-        <v>617844.24</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="16"/>
-        <v>1570371.48</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="16"/>
-        <v>2332512</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="16"/>
-        <v>710975</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="16"/>
-        <v>664581</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="16"/>
-        <v>519990</v>
-      </c>
-      <c r="S19" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="17"/>
-        <v>2121998.7599999998</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="17"/>
-        <v>596682.72</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="17"/>
-        <v>515085.48</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="17"/>
-        <v>2243577</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="17"/>
-        <v>598858</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="17"/>
-        <v>533050</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="17"/>
-        <v>574397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="15"/>
-        <v>3407203.44</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="15"/>
-        <v>399762.72</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="15"/>
-        <v>399762.72</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="15"/>
-        <v>1602368</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="15"/>
-        <v>397806</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="15"/>
-        <v>477596</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="15"/>
-        <v>570108</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="16"/>
-        <v>3437593.92</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="16"/>
-        <v>4627978.5599999996</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="16"/>
-        <v>568579.31999999995</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="16"/>
-        <v>1602575</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="16"/>
-        <v>363222</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="16"/>
-        <v>230443</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="16"/>
-        <v>480659</v>
-      </c>
-      <c r="S20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="17"/>
-        <v>2377545.48</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="17"/>
-        <v>403147.44</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="17"/>
-        <v>776693.15999999992</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="17"/>
-        <v>1758620</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="17"/>
-        <v>579349</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="17"/>
-        <v>600653</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="17"/>
-        <v>622245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="15"/>
-        <v>1768408.5599999998</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="15"/>
-        <v>566071.19999999995</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="15"/>
-        <v>566071.19999999995</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="15"/>
-        <v>1343580</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="15"/>
-        <v>487356</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="15"/>
-        <v>498590</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="15"/>
-        <v>402500</v>
-      </c>
-      <c r="J21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="16"/>
-        <v>1543874.04</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="16"/>
-        <v>2577006</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="16"/>
-        <v>414806.39999999997</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="16"/>
-        <v>1343292</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="16"/>
-        <v>276364</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="16"/>
-        <v>308978</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="16"/>
-        <v>321866</v>
-      </c>
-      <c r="S21" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="17"/>
-        <v>2370307.6799999997</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="17"/>
-        <v>408843</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="17"/>
-        <v>465890.04</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="17"/>
-        <v>1238736</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="17"/>
-        <v>493055</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="17"/>
-        <v>539092</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="17"/>
-        <v>587612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="15"/>
-        <v>6325887.2400000002</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="15"/>
-        <v>1674427.68</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="15"/>
-        <v>1674427.68</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="15"/>
-        <v>4396728</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="15"/>
-        <v>1858940</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="15"/>
-        <v>1831030</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="15"/>
-        <v>1720378</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="16"/>
-        <v>22645144.800000001</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="16"/>
-        <v>17806587.84</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="16"/>
-        <v>5208885.72</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="16"/>
-        <v>4397045</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="16"/>
-        <v>1417820</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="16"/>
-        <v>1590761</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="16"/>
-        <v>1479841</v>
-      </c>
-      <c r="S22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="17"/>
-        <v>7652806.5599999996</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="17"/>
-        <v>1955370.96</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="17"/>
-        <v>1823210.28</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="17"/>
-        <v>4765716</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="17"/>
-        <v>2012420</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="17"/>
-        <v>2006734</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="17"/>
-        <v>1779484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
